--- a/sample_data/cdr_fields.xlsx
+++ b/sample_data/cdr_fields.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -597,60 +597,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="6">
-        <v>47</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>29</v>
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="6">
-        <v>48</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>31</v>
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.2">
@@ -669,192 +669,189 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>41</v>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
         <v>25</v>
       </c>
-      <c r="B10">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="14">
+        <v>29</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="6">
+        <v>47</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="12">
         <v>50</v>
       </c>
-      <c r="B11">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="6">
-        <v>55</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="12">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="10">
-        <v>66</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>47</v>
+      <c r="C18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B19">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6">
+        <v>55</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -869,86 +866,90 @@
       </c>
     </row>
     <row r="22" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="14">
-        <v>29</v>
-      </c>
-      <c r="C22" s="14" t="s">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B24">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="10">
+        <v>66</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="12">
+      <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>34</v>
+      <c r="B27">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:D27">
-    <sortCondition ref="A1"/>
+    <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
